--- a/Documentation/Tempos de apresentação.xlsx
+++ b/Documentation/Tempos de apresentação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\finalProject_CMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06090502-8F03-4793-8447-7BC3AB356730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F2E2A-11B7-4BE8-A478-56F0EAAE9686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CA03A00-9533-48D4-B36E-B8FCB1A64EA7}"/>
+    <workbookView xWindow="16410" yWindow="2895" windowWidth="11970" windowHeight="11100" xr2:uid="{0CA03A00-9533-48D4-B36E-B8FCB1A64EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Call For Papers</t>
   </si>
@@ -99,13 +99,31 @@
   </si>
   <si>
     <t>Média / pessoa</t>
+  </si>
+  <si>
+    <t>Capítulos</t>
+  </si>
+  <si>
+    <t>Tempo ótimo</t>
+  </si>
+  <si>
+    <t>Tempo mau</t>
+  </si>
+  <si>
+    <t>Pessoa</t>
+  </si>
+  <si>
+    <t>Meu Tempo</t>
+  </si>
+  <si>
+    <t>Contexto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +145,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +182,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,12 +240,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,25 +263,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,326 +635,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE345688-B4B2-4FC4-B7AD-5407ED502883}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B2" s="17">
         <v>5.7870370370370367E-4</v>
       </c>
-      <c r="C1" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D1" s="10">
-        <f>B1+C1</f>
+      <c r="C2" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D2" s="17">
+        <f>B2+C2</f>
         <v>9.2592592592592596E-4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B3" s="17">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="C2" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D2" s="10">
-        <f t="shared" ref="D2:D15" si="0">B2+C2</f>
+      <c r="C3" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D17" si="0">B3+C3</f>
         <v>6.8287037037037036E-4</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B4" s="17">
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="C3" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C4" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D4" s="17">
         <f t="shared" si="0"/>
         <v>6.3657407407407413E-4</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B5" s="17">
         <v>2.5462962962962961E-4</v>
       </c>
-      <c r="C4" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C5" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>6.018518518518519E-4</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
+        <v>3.7037037037037035E-4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="17">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="C5" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C6" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B7" s="17">
         <v>4.5138888888888887E-4</v>
       </c>
-      <c r="C6" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C7" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>7.9861111111111105E-4</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>4.6296296296296298E-4</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>1.0185185185185184E-3</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B9" s="17">
         <v>7.291666666666667E-4</v>
       </c>
-      <c r="C7" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C9" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>1.0763888888888889E-3</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>1.0185185185185184E-3</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B10" s="17">
         <v>7.6388888888888893E-4</v>
       </c>
-      <c r="C8" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C10" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E10" s="17">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="F10" s="17">
+        <v>7.8703703703703705E-4</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="M10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B11" s="17">
         <v>8.7962962962962962E-4</v>
       </c>
-      <c r="C9" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C11" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>1.2268518518518518E-3</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="E11" s="18">
+        <v>8.9120370370370373E-4</v>
+      </c>
+      <c r="F11" s="17">
+        <v>7.5231481481481482E-4</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B12" s="17">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="C10" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C12" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>1.261574074074074E-3</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <v>1.4004629629629629E-3</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B13" s="17">
         <v>6.3657407407407413E-4</v>
       </c>
-      <c r="C11" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C13" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>9.8379629629629642E-4</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B14" s="17">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C12" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C14" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>7.8703703703703705E-4</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B15" s="17">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="C13" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C15" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B16" s="19">
         <v>0</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="17">
+        <v>8.9120370370370373E-4</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B17" s="17">
         <v>4.6296296296296298E-4</v>
       </c>
-      <c r="C15" s="10">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C17" s="17">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>8.1018518518518527E-4</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E17" s="17">
+        <v>1.3773148148148147E-3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>8.9120370370370373E-4</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
-        <f>SUM(B1:B16)</f>
+      <c r="B19" s="3">
+        <f>SUM(B2:B18)</f>
         <v>7.6967592592592591E-3</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
-        <f>SUM(D1:D16)</f>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
+        <f>SUM(D2:D18)</f>
         <v>1.2557870370370372E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="E19" s="16">
+        <f>SUM(E2:E17)</f>
+        <v>3.0787037037037037E-3</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="B18" s="1">
-        <f>A18-B17</f>
+      <c r="B20" s="1">
+        <f>A20-B19</f>
         <v>6.192129629629629E-3</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>A18-D17</f>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f>A20-D19</f>
         <v>1.3310185185185161E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <f>B17/4</f>
+      <c r="B21" s="2">
+        <f>B19/4</f>
         <v>1.9241898148148148E-3</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:D19" si="1">C17/4</f>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21" si="1">C19/4</f>
         <v>0</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E1:E6"/>
-    <mergeCell ref="E8:E9"/>
+  <mergeCells count="5">
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
